--- a/biology/Zoologie/Heteroscorpion_opisthacanthoides/Heteroscorpion_opisthacanthoides.xlsx
+++ b/biology/Zoologie/Heteroscorpion_opisthacanthoides/Heteroscorpion_opisthacanthoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heteroscorpion opisthacanthoides est une espèce de scorpions de la famille des Heteroscorpionidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la région Diana à Madagascar[1]. Elle se rencontre vers Ambilobe, à Nosy Be et à Nosy Komba.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la région Diana à Madagascar. Elle se rencontre vers Ambilobe, à Nosy Be et à Nosy Komba.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle mesure jusqu'à 140 mm et la femelle jusqu'à 110 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle mesure jusqu'à 140 mm et la femelle jusqu'à 110 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Hadogenes opisthacanthoides par Kraepelin en 1896. Elle est placée dans le genre Heteroscorpion par Fage en 1929[2] qui dans le même temps place Heteroscorpion madagascarense en synonymie.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Hadogenes opisthacanthoides par Kraepelin en 1896. Elle est placée dans le genre Heteroscorpion par Fage en 1929 qui dans le même temps place Heteroscorpion madagascarense en synonymie.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Kraepelin, 1896 : Neue und weniger bekannte Skorpione. Mittheilungen aus dem Naturhistorischen Museum, Beiheft zum Jahrb. Beiheft zum Jahrbuch der Hamburgischen wissenschaftlichen Anstalten, vol. 13, no 8, p. 119-146 (texte intégral).</t>
         </is>
